--- a/Week 1/Software Engineering Management Words.xlsx
+++ b/Week 1/Software Engineering Management Words.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="535">
   <si>
     <t>English</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Abundant</t>
   </si>
   <si>
+    <t>丰富的</t>
+  </si>
+  <si>
     <t>豐富的</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>Achieve</t>
   </si>
   <si>
+    <t>达到，取得，实现</t>
+  </si>
+  <si>
     <t>達成</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>Adapt</t>
   </si>
   <si>
+    <t>适应</t>
+  </si>
+  <si>
     <t>適應</t>
   </si>
   <si>
@@ -55,6 +64,9 @@
     <t>Appreciate</t>
   </si>
   <si>
+    <t>感激，欣赏</t>
+  </si>
+  <si>
     <t>感激，欣賞</t>
   </si>
   <si>
@@ -73,12 +85,18 @@
     <t>Attitude</t>
   </si>
   <si>
+    <t>态度</t>
+  </si>
+  <si>
     <t>態度</t>
   </si>
   <si>
     <t>Behavior</t>
   </si>
   <si>
+    <t>行为</t>
+  </si>
+  <si>
     <t>行為</t>
   </si>
   <si>
@@ -106,6 +124,9 @@
     <t>Challenge</t>
   </si>
   <si>
+    <t>挑战</t>
+  </si>
+  <si>
     <t>挑戰</t>
   </si>
   <si>
@@ -115,6 +136,9 @@
     <t>Character</t>
   </si>
   <si>
+    <t>角色，性格，特征</t>
+  </si>
+  <si>
     <t>角色</t>
   </si>
   <si>
@@ -124,6 +148,9 @@
     <t>Circumstance</t>
   </si>
   <si>
+    <t>情况</t>
+  </si>
+  <si>
     <t>情況</t>
   </si>
   <si>
@@ -142,6 +169,9 @@
     <t>Commence</t>
   </si>
   <si>
+    <t>开始</t>
+  </si>
+  <si>
     <t>開始</t>
   </si>
   <si>
@@ -151,6 +181,9 @@
     <t>Comprehend</t>
   </si>
   <si>
+    <t>理解，包含</t>
+  </si>
+  <si>
     <t>理解</t>
   </si>
   <si>
@@ -160,6 +193,9 @@
     <t>Consequence</t>
   </si>
   <si>
+    <t>结果</t>
+  </si>
+  <si>
     <t>結果</t>
   </si>
   <si>
@@ -169,6 +205,9 @@
     <t>Consistent</t>
   </si>
   <si>
+    <t>一致的，持续的</t>
+  </si>
+  <si>
     <t>一致的</t>
   </si>
   <si>
@@ -178,6 +217,9 @@
     <t>Construct</t>
   </si>
   <si>
+    <t>建造</t>
+  </si>
+  <si>
     <t>建構</t>
   </si>
   <si>
@@ -187,6 +229,9 @@
     <t>Contribute</t>
   </si>
   <si>
+    <t>贡献</t>
+  </si>
+  <si>
     <t>貢獻</t>
   </si>
   <si>
@@ -196,6 +241,9 @@
     <t>Convince</t>
   </si>
   <si>
+    <t>说服</t>
+  </si>
+  <si>
     <t>說服</t>
   </si>
   <si>
@@ -205,6 +253,9 @@
     <t>Decline</t>
   </si>
   <si>
+    <t>下降，减少</t>
+  </si>
+  <si>
     <t>衰退</t>
   </si>
   <si>
@@ -214,6 +265,9 @@
     <t>Define</t>
   </si>
   <si>
+    <t>定义</t>
+  </si>
+  <si>
     <t>定義</t>
   </si>
   <si>
@@ -223,6 +277,9 @@
     <t>Definite</t>
   </si>
   <si>
+    <t>明确的</t>
+  </si>
+  <si>
     <t>明確的</t>
   </si>
   <si>
@@ -232,6 +289,9 @@
     <t>Demonstrate</t>
   </si>
   <si>
+    <t>示范</t>
+  </si>
+  <si>
     <t>示範</t>
   </si>
   <si>
@@ -241,6 +301,9 @@
     <t>Dependent</t>
   </si>
   <si>
+    <t>依赖</t>
+  </si>
+  <si>
     <t>依賴的</t>
   </si>
   <si>
@@ -250,6 +313,9 @@
     <t>Determine</t>
   </si>
   <si>
+    <t>决定</t>
+  </si>
+  <si>
     <t>決定</t>
   </si>
   <si>
@@ -259,6 +325,9 @@
     <t>Development</t>
   </si>
   <si>
+    <t>发展</t>
+  </si>
+  <si>
     <t>發展</t>
   </si>
   <si>
@@ -268,6 +337,9 @@
     <t>Differentiate</t>
   </si>
   <si>
+    <t>区别</t>
+  </si>
+  <si>
     <t>區別</t>
   </si>
   <si>
@@ -277,6 +349,9 @@
     <t>Discourage</t>
   </si>
   <si>
+    <t>不鼓励</t>
+  </si>
+  <si>
     <t>不鼓勵</t>
   </si>
   <si>
@@ -286,6 +361,9 @@
     <t>Dispute</t>
   </si>
   <si>
+    <t>争议</t>
+  </si>
+  <si>
     <t>爭議</t>
   </si>
   <si>
@@ -295,6 +373,9 @@
     <t>Efficient</t>
   </si>
   <si>
+    <t>高效的</t>
+  </si>
+  <si>
     <t>高效率的</t>
   </si>
   <si>
@@ -313,6 +394,9 @@
     <t>Engage</t>
   </si>
   <si>
+    <t>参与</t>
+  </si>
+  <si>
     <t>參與</t>
   </si>
   <si>
@@ -322,6 +406,9 @@
     <t>Environment</t>
   </si>
   <si>
+    <t>环境</t>
+  </si>
+  <si>
     <t>環境</t>
   </si>
   <si>
@@ -340,6 +427,9 @@
     <t>Evaluate</t>
   </si>
   <si>
+    <t>评估</t>
+  </si>
+  <si>
     <t>評估</t>
   </si>
   <si>
@@ -349,6 +439,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>根据</t>
+  </si>
+  <si>
     <t>證據</t>
   </si>
   <si>
@@ -364,6 +457,9 @@
     <t>Exchange</t>
   </si>
   <si>
+    <t>交换</t>
+  </si>
+  <si>
     <t>交換</t>
   </si>
   <si>
@@ -373,6 +469,9 @@
     <t>Exhilarating</t>
   </si>
   <si>
+    <t>令人兴奋的</t>
+  </si>
+  <si>
     <t>令人振奮的</t>
   </si>
   <si>
@@ -382,6 +481,9 @@
     <t>Expand</t>
   </si>
   <si>
+    <t>扩大</t>
+  </si>
+  <si>
     <t>擴張</t>
   </si>
   <si>
@@ -391,6 +493,9 @@
     <t>Explanation</t>
   </si>
   <si>
+    <t>解释</t>
+  </si>
+  <si>
     <t>解釋</t>
   </si>
   <si>
@@ -409,6 +514,9 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>特点</t>
+  </si>
+  <si>
     <t>特徵</t>
   </si>
   <si>
@@ -418,6 +526,9 @@
     <t>Foundation</t>
   </si>
   <si>
+    <t>基础</t>
+  </si>
+  <si>
     <t>基礎</t>
   </si>
   <si>
@@ -427,6 +538,9 @@
     <t>Generate</t>
   </si>
   <si>
+    <t>产生</t>
+  </si>
+  <si>
     <t>產生</t>
   </si>
   <si>
@@ -436,6 +550,9 @@
     <t>Genuine</t>
   </si>
   <si>
+    <t>真实的</t>
+  </si>
+  <si>
     <t>真實的</t>
   </si>
   <si>
@@ -454,6 +571,9 @@
     <t>Goal</t>
   </si>
   <si>
+    <t>目标</t>
+  </si>
+  <si>
     <t>目標</t>
   </si>
   <si>
@@ -463,6 +583,9 @@
     <t>Gradual</t>
   </si>
   <si>
+    <t>逐渐</t>
+  </si>
+  <si>
     <t>逐漸的</t>
   </si>
   <si>
@@ -472,6 +595,9 @@
     <t>Guarantee</t>
   </si>
   <si>
+    <t>保证</t>
+  </si>
+  <si>
     <t>保證</t>
   </si>
   <si>
@@ -481,6 +607,9 @@
     <t>Harmony</t>
   </si>
   <si>
+    <t>和谐</t>
+  </si>
+  <si>
     <t>和諧</t>
   </si>
   <si>
@@ -490,6 +619,9 @@
     <t>Identify</t>
   </si>
   <si>
+    <t>分辨</t>
+  </si>
+  <si>
     <t>辨識</t>
   </si>
   <si>
@@ -508,12 +640,18 @@
     <t>Impact</t>
   </si>
   <si>
+    <t>影响</t>
+  </si>
+  <si>
     <t>影響</t>
   </si>
   <si>
     <t>Implement</t>
   </si>
   <si>
+    <t>实施</t>
+  </si>
+  <si>
     <t>實施</t>
   </si>
   <si>
@@ -532,6 +670,9 @@
     <t>Improve</t>
   </si>
   <si>
+    <t>改善，提高</t>
+  </si>
+  <si>
     <t>提升，改善</t>
   </si>
   <si>
@@ -541,6 +682,9 @@
     <t>Incentive</t>
   </si>
   <si>
+    <t>激励</t>
+  </si>
+  <si>
     <t>激勵</t>
   </si>
   <si>
@@ -550,6 +694,9 @@
     <t>Independence</t>
   </si>
   <si>
+    <t>独立</t>
+  </si>
+  <si>
     <t>獨立</t>
   </si>
   <si>
@@ -568,6 +715,9 @@
     <t>Individual</t>
   </si>
   <si>
+    <t>个人的</t>
+  </si>
+  <si>
     <t>個人</t>
   </si>
   <si>
@@ -589,6 +739,9 @@
     <t>Innovate</t>
   </si>
   <si>
+    <t>革新，创新</t>
+  </si>
+  <si>
     <t>創新</t>
   </si>
   <si>
@@ -598,6 +751,9 @@
     <t>Insight</t>
   </si>
   <si>
+    <t>了解，洞悉</t>
+  </si>
+  <si>
     <t>洞察力</t>
   </si>
   <si>
@@ -625,12 +781,18 @@
     <t>Interpret</t>
   </si>
   <si>
+    <t>解释，口译</t>
+  </si>
+  <si>
     <t>Interpréter</t>
   </si>
   <si>
     <t>Investigation</t>
   </si>
   <si>
+    <t>调查</t>
+  </si>
+  <si>
     <t>調查</t>
   </si>
   <si>
@@ -640,6 +802,9 @@
     <t>Isolate</t>
   </si>
   <si>
+    <t>孤立</t>
+  </si>
+  <si>
     <t>隔離</t>
   </si>
   <si>
@@ -649,6 +814,9 @@
     <t>Justify</t>
   </si>
   <si>
+    <t>证明合法</t>
+  </si>
+  <si>
     <t>證明合法</t>
   </si>
   <si>
@@ -664,6 +832,9 @@
     <t>Majority</t>
   </si>
   <si>
+    <t>大多数</t>
+  </si>
+  <si>
     <t>多數</t>
   </si>
   <si>
@@ -673,6 +844,9 @@
     <t>Maintain</t>
   </si>
   <si>
+    <t>保持</t>
+  </si>
+  <si>
     <t>維持</t>
   </si>
   <si>
@@ -688,6 +862,9 @@
     <t>Navigate</t>
   </si>
   <si>
+    <t>导航</t>
+  </si>
+  <si>
     <t>導航</t>
   </si>
   <si>
@@ -706,12 +883,18 @@
     <t>Obstacle</t>
   </si>
   <si>
+    <t>障碍</t>
+  </si>
+  <si>
     <t>障礙</t>
   </si>
   <si>
     <t>Opportunity</t>
   </si>
   <si>
+    <t>机会</t>
+  </si>
+  <si>
     <t>機會</t>
   </si>
   <si>
@@ -721,12 +904,18 @@
     <t>Optimum</t>
   </si>
   <si>
+    <t>最优的</t>
+  </si>
+  <si>
     <t>最佳</t>
   </si>
   <si>
     <t>Organize</t>
   </si>
   <si>
+    <t>组织</t>
+  </si>
+  <si>
     <t>組織</t>
   </si>
   <si>
@@ -736,6 +925,9 @@
     <t>Participate</t>
   </si>
   <si>
+    <t>参加</t>
+  </si>
+  <si>
     <t>參加</t>
   </si>
   <si>
@@ -745,6 +937,9 @@
     <t>Perception</t>
   </si>
   <si>
+    <t>看法</t>
+  </si>
+  <si>
     <t>感知</t>
   </si>
   <si>
@@ -757,6 +952,9 @@
     <t>Perspective</t>
   </si>
   <si>
+    <t>视角，观点</t>
+  </si>
+  <si>
     <t>觀點</t>
   </si>
   <si>
@@ -772,6 +970,9 @@
     <t>Potential</t>
   </si>
   <si>
+    <t>潜在的</t>
+  </si>
+  <si>
     <t>潛在的</t>
   </si>
   <si>
@@ -781,6 +982,9 @@
     <t>Precise</t>
   </si>
   <si>
+    <t>精确的</t>
+  </si>
+  <si>
     <t>精確的</t>
   </si>
   <si>
@@ -790,6 +994,9 @@
     <t>Predict</t>
   </si>
   <si>
+    <t>预测</t>
+  </si>
+  <si>
     <t>預測</t>
   </si>
   <si>
@@ -799,6 +1006,9 @@
     <t>Principle</t>
   </si>
   <si>
+    <t>原则</t>
+  </si>
+  <si>
     <t>原則</t>
   </si>
   <si>
@@ -808,6 +1018,9 @@
     <t>Priority</t>
   </si>
   <si>
+    <t>优先</t>
+  </si>
+  <si>
     <t>優先</t>
   </si>
   <si>
@@ -817,6 +1030,9 @@
     <t>Procedure</t>
   </si>
   <si>
+    <t>程序，进程</t>
+  </si>
+  <si>
     <t>程序</t>
   </si>
   <si>
@@ -826,6 +1042,9 @@
     <t>Process</t>
   </si>
   <si>
+    <t>过程</t>
+  </si>
+  <si>
     <t>過程</t>
   </si>
   <si>
@@ -835,6 +1054,9 @@
     <t>Produce</t>
   </si>
   <si>
+    <t>生产</t>
+  </si>
+  <si>
     <t>生產</t>
   </si>
   <si>
@@ -853,6 +1075,9 @@
     <t>Progress</t>
   </si>
   <si>
+    <t>进展</t>
+  </si>
+  <si>
     <t>進展</t>
   </si>
   <si>
@@ -862,6 +1087,9 @@
     <t>Promote</t>
   </si>
   <si>
+    <t>促进</t>
+  </si>
+  <si>
     <t>提倡</t>
   </si>
   <si>
@@ -871,6 +1099,9 @@
     <t>Prosper</t>
   </si>
   <si>
+    <t>繁荣</t>
+  </si>
+  <si>
     <t>繁榮</t>
   </si>
   <si>
@@ -889,6 +1120,9 @@
     <t>Qualify</t>
   </si>
   <si>
+    <t>获得资格</t>
+  </si>
+  <si>
     <t>取得資格</t>
   </si>
   <si>
@@ -898,6 +1132,9 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>品质</t>
+  </si>
+  <si>
     <t>品質</t>
   </si>
   <si>
@@ -907,6 +1144,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>数量</t>
+  </si>
+  <si>
     <t>數量</t>
   </si>
   <si>
@@ -916,6 +1156,9 @@
     <t>React</t>
   </si>
   <si>
+    <t>反应</t>
+  </si>
+  <si>
     <t>反應</t>
   </si>
   <si>
@@ -925,6 +1168,9 @@
     <t>Realistic</t>
   </si>
   <si>
+    <t>实际的</t>
+  </si>
+  <si>
     <t>實際的</t>
   </si>
   <si>
@@ -934,6 +1180,9 @@
     <t>Recognize</t>
   </si>
   <si>
+    <t>辨别</t>
+  </si>
+  <si>
     <t>認識</t>
   </si>
   <si>
@@ -952,6 +1201,9 @@
     <t>Regulate</t>
   </si>
   <si>
+    <t>调节</t>
+  </si>
+  <si>
     <t>調節</t>
   </si>
   <si>
@@ -961,6 +1213,9 @@
     <t>Relevant</t>
   </si>
   <si>
+    <t>相关的</t>
+  </si>
+  <si>
     <t>相關的</t>
   </si>
   <si>
@@ -979,6 +1234,9 @@
     <t>Resilient</t>
   </si>
   <si>
+    <t>有弹性的</t>
+  </si>
+  <si>
     <t>有彈性的</t>
   </si>
   <si>
@@ -988,6 +1246,9 @@
     <t>Resolve</t>
   </si>
   <si>
+    <t>解决</t>
+  </si>
+  <si>
     <t>解決</t>
   </si>
   <si>
@@ -997,6 +1258,9 @@
     <t>Resourceful</t>
   </si>
   <si>
+    <t>资源丰富的</t>
+  </si>
+  <si>
     <t>資源豐富的</t>
   </si>
   <si>
@@ -1006,6 +1270,9 @@
     <t>Response</t>
   </si>
   <si>
+    <t>回复</t>
+  </si>
+  <si>
     <t>回應</t>
   </si>
   <si>
@@ -1021,6 +1288,9 @@
     <t>Revise</t>
   </si>
   <si>
+    <t>修订</t>
+  </si>
+  <si>
     <t>修訂</t>
   </si>
   <si>
@@ -1039,6 +1309,9 @@
     <t>Simulate</t>
   </si>
   <si>
+    <t>模拟</t>
+  </si>
+  <si>
     <t>模擬</t>
   </si>
   <si>
@@ -1048,6 +1321,9 @@
     <t>Specify</t>
   </si>
   <si>
+    <t>明确指出</t>
+  </si>
+  <si>
     <t>具體指明</t>
   </si>
   <si>
@@ -1066,12 +1342,18 @@
     <t>Structure</t>
   </si>
   <si>
+    <t>结构</t>
+  </si>
+  <si>
     <t>結構</t>
   </si>
   <si>
     <t>Subsequent</t>
   </si>
   <si>
+    <t>随后的</t>
+  </si>
+  <si>
     <t>後續的</t>
   </si>
   <si>
@@ -1090,6 +1372,9 @@
     <t>Summarize</t>
   </si>
   <si>
+    <t>总结</t>
+  </si>
+  <si>
     <t>總結</t>
   </si>
   <si>
@@ -1108,6 +1393,9 @@
     <t>Sustainable</t>
   </si>
   <si>
+    <t>可持续的</t>
+  </si>
+  <si>
     <t>可持續的</t>
   </si>
   <si>
@@ -1117,6 +1405,9 @@
     <t>Synthesize</t>
   </si>
   <si>
+    <t>综合，合成</t>
+  </si>
+  <si>
     <t>綜合；合成</t>
   </si>
   <si>
@@ -1132,6 +1423,9 @@
     <t>Tendency</t>
   </si>
   <si>
+    <t>趋势</t>
+  </si>
+  <si>
     <t>趨勢</t>
   </si>
   <si>
@@ -1141,6 +1435,9 @@
     <t>Transform</t>
   </si>
   <si>
+    <t>转换</t>
+  </si>
+  <si>
     <t>轉換</t>
   </si>
   <si>
@@ -1150,6 +1447,9 @@
     <t>Unique</t>
   </si>
   <si>
+    <t>独特的</t>
+  </si>
+  <si>
     <t>獨特的</t>
   </si>
   <si>
@@ -1165,6 +1465,9 @@
     <t>Validate</t>
   </si>
   <si>
+    <t>验证</t>
+  </si>
+  <si>
     <t>驗證</t>
   </si>
   <si>
@@ -1174,12 +1477,18 @@
     <t>Variable</t>
   </si>
   <si>
+    <t>多变的</t>
+  </si>
+  <si>
     <t>變數</t>
   </si>
   <si>
     <t>Verify</t>
   </si>
   <si>
+    <t>证实</t>
+  </si>
+  <si>
     <t>核實</t>
   </si>
   <si>
@@ -1198,6 +1507,9 @@
     <t>Visualize</t>
   </si>
   <si>
+    <t>视觉化</t>
+  </si>
+  <si>
     <t>視覺化</t>
   </si>
   <si>
@@ -1222,6 +1534,9 @@
     <t>Welfare</t>
   </si>
   <si>
+    <t>福利、</t>
+  </si>
+  <si>
     <t>福利</t>
   </si>
   <si>
@@ -1231,6 +1546,9 @@
     <t>Widespread</t>
   </si>
   <si>
+    <t>广泛</t>
+  </si>
+  <si>
     <t>廣泛</t>
   </si>
   <si>
@@ -1258,6 +1576,9 @@
     <t>Zeal</t>
   </si>
   <si>
+    <t>热情</t>
+  </si>
+  <si>
     <t>熱情</t>
   </si>
   <si>
@@ -1267,12 +1588,18 @@
     <t>Adaptation</t>
   </si>
   <si>
+    <t>适应，改编</t>
+  </si>
+  <si>
     <t>Collaboration</t>
   </si>
   <si>
     <t>Determination</t>
   </si>
   <si>
+    <t>决心</t>
+  </si>
+  <si>
     <t>決心</t>
   </si>
   <si>
@@ -1286,6 +1613,9 @@
   </si>
   <si>
     <t>Innovation</t>
+  </si>
+  <si>
+    <t>创新</t>
   </si>
 </sst>
 </file>
@@ -1570,1650 +1900,2100 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>111</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>123</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>126</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>130</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>147</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>122</v>
+        <v>155</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>125</v>
+        <v>159</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>163</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>131</v>
+        <v>166</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>134</v>
+        <v>170</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>137</v>
+        <v>174</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>139</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>178</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>146</v>
+        <v>185</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>149</v>
+        <v>189</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>197</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>158</v>
+        <v>201</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>205</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>206</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>208</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>211</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>218</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>222</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>178</v>
+        <v>226</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>230</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>184</v>
+        <v>233</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>187</v>
+        <v>237</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>239</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>191</v>
+        <v>241</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>194</v>
+        <v>245</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>197</v>
+        <v>249</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>200</v>
+        <v>252</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>203</v>
+        <v>255</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>205</v>
+        <v>258</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>208</v>
+        <v>262</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>211</v>
+        <v>266</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>214</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>216</v>
+        <v>272</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>217</v>
+        <v>274</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>219</v>
+        <v>276</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>222</v>
+        <v>280</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>224</v>
+        <v>282</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>227</v>
+        <v>286</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>230</v>
+        <v>289</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>290</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>232</v>
+        <v>292</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>233</v>
+        <v>294</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>234</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>235</v>
+        <v>296</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>297</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>237</v>
+        <v>299</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>239</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>240</v>
+        <v>303</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>243</v>
+        <v>307</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>245</v>
+        <v>310</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>247</v>
+        <v>312</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>249</v>
+        <v>315</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>252</v>
+        <v>318</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>255</v>
+        <v>322</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>257</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>258</v>
+        <v>326</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>261</v>
+        <v>330</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>263</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>264</v>
+        <v>334</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>267</v>
+        <v>338</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>268</v>
+        <v>340</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>270</v>
+        <v>342</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>273</v>
+        <v>346</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>275</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>276</v>
+        <v>350</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>278</v>
+        <v>352</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>279</v>
+        <v>353</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>282</v>
+        <v>357</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>283</v>
+        <v>359</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>284</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>285</v>
+        <v>361</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>288</v>
+        <v>365</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>290</v>
+        <v>367</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>291</v>
+        <v>368</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>294</v>
+        <v>372</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>295</v>
+        <v>374</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>297</v>
+        <v>376</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>300</v>
+        <v>380</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>301</v>
+        <v>382</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>303</v>
+        <v>384</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>304</v>
+        <v>386</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>305</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>306</v>
+        <v>388</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>307</v>
+        <v>390</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>308</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>309</v>
+        <v>392</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>310</v>
+        <v>393</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>311</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>312</v>
+        <v>395</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>313</v>
+        <v>397</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="s">
-        <v>315</v>
+        <v>399</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>316</v>
+        <v>401</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>317</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>318</v>
+        <v>403</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>320</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>321</v>
+        <v>406</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>322</v>
+        <v>408</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>323</v>
+        <v>409</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>324</v>
+        <v>410</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>327</v>
+        <v>414</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>329</v>
+        <v>417</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>330</v>
+        <v>418</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>333</v>
+        <v>422</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>334</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>335</v>
+        <v>424</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>337</v>
+        <v>427</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>338</v>
+        <v>428</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>340</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>341</v>
+        <v>431</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>342</v>
+        <v>433</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>344</v>
+        <v>435</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>436</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>345</v>
+        <v>437</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>346</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>347</v>
+        <v>439</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>440</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>348</v>
+        <v>440</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="s">
-        <v>350</v>
+        <v>442</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>351</v>
+        <v>444</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>350</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="s">
-        <v>352</v>
+        <v>445</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>446</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>353</v>
+        <v>447</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>354</v>
+        <v>448</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>355</v>
+        <v>449</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>356</v>
+        <v>450</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>357</v>
+        <v>451</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>358</v>
+        <v>452</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>359</v>
+        <v>454</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>360</v>
+        <v>455</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>361</v>
+        <v>456</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>457</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="s">
-        <v>364</v>
+        <v>459</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>365</v>
+        <v>461</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>366</v>
+        <v>462</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>367</v>
+        <v>463</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>464</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>369</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>370</v>
+        <v>467</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>371</v>
+        <v>468</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>372</v>
+        <v>469</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>470</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>373</v>
+        <v>471</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>375</v>
+        <v>473</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>474</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>376</v>
+        <v>475</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>377</v>
+        <v>476</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>378</v>
+        <v>477</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>379</v>
+        <v>479</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>378</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>380</v>
+        <v>480</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>382</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>383</v>
+        <v>483</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>386</v>
+        <v>487</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>388</v>
+        <v>490</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>389</v>
+        <v>492</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>391</v>
+        <v>494</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>495</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>392</v>
+        <v>495</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>394</v>
+        <v>497</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>498</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>395</v>
+        <v>499</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>396</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>397</v>
+        <v>501</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>398</v>
+        <v>502</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>397</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>399</v>
+        <v>503</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>504</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>400</v>
+        <v>504</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>401</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>402</v>
+        <v>506</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>403</v>
+        <v>508</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>405</v>
+        <v>510</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>406</v>
+        <v>512</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>407</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>408</v>
+        <v>514</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>409</v>
+        <v>515</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>410</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>411</v>
+        <v>517</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>518</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>412</v>
+        <v>518</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>413</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="s">
-        <v>414</v>
+        <v>520</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>415</v>
+        <v>522</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>416</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="s">
-        <v>417</v>
+        <v>524</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>525</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>417</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="s">
-        <v>418</v>
+        <v>526</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>418</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="s">
-        <v>419</v>
+        <v>527</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>528</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>420</v>
+        <v>529</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>421</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="s">
-        <v>178</v>
+        <v>226</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="s">
-        <v>422</v>
+        <v>531</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>423</v>
+        <v>532</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="s">
-        <v>424</v>
+        <v>533</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>534</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>424</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
